--- a/static/opentickets_priority.xlsx
+++ b/static/opentickets_priority.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t xml:space="preserve">Incident </t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">GBL28494422i</t>
   </si>
   <si>
-    <t xml:space="preserve">18/03/2018 08:29:45</t>
+    <t xml:space="preserve">23/03/2018 08:29:45</t>
   </si>
   <si>
     <t xml:space="preserve">MEDIUM</t>
@@ -53,6 +53,9 @@
     <t xml:space="preserve">GBL28591166i</t>
   </si>
   <si>
+    <t xml:space="preserve">CRITICAL</t>
+  </si>
+  <si>
     <t xml:space="preserve">GBL28596876i</t>
   </si>
   <si>
@@ -77,6 +80,9 @@
     <t xml:space="preserve">GBL28620085i</t>
   </si>
   <si>
+    <t xml:space="preserve">HIGH</t>
+  </si>
+  <si>
     <t xml:space="preserve">GBL28621344i</t>
   </si>
   <si>
@@ -86,31 +92,31 @@
     <t xml:space="preserve">GBL28627596i</t>
   </si>
   <si>
-    <t xml:space="preserve">13/04/2018 02:46:27</t>
+    <t xml:space="preserve">26/04/2018 22:46:27</t>
   </si>
   <si>
     <t xml:space="preserve">GBL28627717i</t>
   </si>
   <si>
-    <t xml:space="preserve">13/04/2018 03:15:13</t>
+    <t xml:space="preserve">26/04/2018 21:15:13</t>
   </si>
   <si>
     <t xml:space="preserve">GBL28632903i</t>
   </si>
   <si>
-    <t xml:space="preserve">13/04/2018 23:11:46</t>
+    <t xml:space="preserve">23/04/2018 23:11:46</t>
   </si>
   <si>
     <t xml:space="preserve">GBL28633822i</t>
   </si>
   <si>
-    <t xml:space="preserve">14/04/2018 02:46:42</t>
+    <t xml:space="preserve">24/04/2018 02:46:42</t>
   </si>
   <si>
     <t xml:space="preserve">GBL28636166i</t>
   </si>
   <si>
-    <t xml:space="preserve">15/04/2018 21:57:03</t>
+    <t xml:space="preserve">25/04/2018 21:57:03</t>
   </si>
   <si>
     <t xml:space="preserve">GBL28638254i</t>
@@ -158,7 +164,7 @@
     <t xml:space="preserve">GBL28650122i</t>
   </si>
   <si>
-    <t xml:space="preserve">18/04/2018 03:16:44</t>
+    <t xml:space="preserve">26/04/2018 22:16:44</t>
   </si>
   <si>
     <t xml:space="preserve">GBL28650815i</t>
@@ -313,13 +319,13 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.9797570850202"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
@@ -351,7 +357,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>43192.7432291667</v>
+        <v>43214.7432291667</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -362,7 +368,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>43194.0936458333</v>
+        <v>43212.0936458333</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -373,18 +379,18 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>43195.8859375</v>
+        <v>43216.9276041667</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="n">
-        <v>43196.8713773148</v>
+        <v>43211.8713773148</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -392,10 +398,10 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="5" t="n">
-        <v>43199.7927662037</v>
+        <v>43211.7927662037</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -403,21 +409,21 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="5" t="n">
-        <v>43200.7515856482</v>
+        <v>43216.9182523148</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="5" t="n">
-        <v>43200.796724537</v>
+        <v>43212.796724537</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -425,10 +431,10 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="5" t="n">
-        <v>43201.0150115741</v>
+        <v>43211.0150115741</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -436,10 +442,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5" t="n">
-        <v>43201.2811574074</v>
+        <v>43213.2811574074</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -447,10 +453,10 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="5" t="n">
-        <v>43201.6866203704</v>
+        <v>43210.6866203704</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -458,21 +464,21 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="n">
-        <v>43201.9778587963</v>
+        <v>43216.9778587963</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" s="5" t="n">
-        <v>43202.1271412037</v>
+        <v>43210.1271412037</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -480,10 +486,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="5" t="n">
-        <v>43202.8538541667</v>
+        <v>43212.8538541667</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
@@ -491,32 +497,32 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -524,10 +530,10 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>8</v>
@@ -535,21 +541,21 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -557,10 +563,10 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>8</v>
@@ -568,21 +574,21 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
@@ -590,21 +596,21 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -612,32 +618,32 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
@@ -645,10 +651,10 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
@@ -656,13 +662,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
